--- a/test-preader.xlsx
+++ b/test-preader.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shef_covid\elisa-dl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461B3174-480E-4869-B83C-55B6E8F70BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59E4D3-F1BD-4D38-818C-A3DFBD992DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="630" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
     <sheet name="Layout" sheetId="2" r:id="rId2"/>
     <sheet name="Photometric1" sheetId="3" r:id="rId3"/>
-    <sheet name="Run_Log" sheetId="4" r:id="rId4"/>
-    <sheet name="Sample_Data" sheetId="5" r:id="rId5"/>
-    <sheet name="Steps_Data" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="95">
   <si>
     <t xml:space="preserve">                                                                                   </t>
   </si>
@@ -57,7 +64,7 @@
     <t>Run started</t>
   </si>
   <si>
-    <t>27/04/2020 15:13:50+01:00</t>
+    <t>15/05/2020 15:26:01+01:00</t>
   </si>
   <si>
     <t>Total warnings</t>
@@ -90,7 +97,7 @@
     <t>Actual instrument temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">25 24.4 24.4 </t>
+    <t xml:space="preserve">25.5 24.7 24.6 </t>
   </si>
   <si>
     <t>Dispenser</t>
@@ -204,388 +211,112 @@
     <t>Photometric1</t>
   </si>
   <si>
-    <t>Un_0001 1/1</t>
-  </si>
-  <si>
-    <t>Un_0002 2/12</t>
-  </si>
-  <si>
-    <t>Un_0002 3/12</t>
-  </si>
-  <si>
-    <t>Un_0002 4/12</t>
-  </si>
-  <si>
-    <t>Un_0002 5/12</t>
-  </si>
-  <si>
-    <t>Un_0002 6/12</t>
-  </si>
-  <si>
-    <t>Un_0002 7/12</t>
-  </si>
-  <si>
-    <t>Un_0002 8/12</t>
-  </si>
-  <si>
-    <t>Un_0002 9/12</t>
-  </si>
-  <si>
-    <t>Un_0002 10/12</t>
-  </si>
-  <si>
-    <t>Un_0002 11/12</t>
-  </si>
-  <si>
-    <t>Un_0002 12/12</t>
-  </si>
-  <si>
-    <t>Un_0002 1/12</t>
-  </si>
-  <si>
-    <t>Un_0003 2/12</t>
-  </si>
-  <si>
-    <t>Un_0003 3/12</t>
-  </si>
-  <si>
-    <t>Un_0003 4/12</t>
-  </si>
-  <si>
-    <t>Un_0003 5/12</t>
-  </si>
-  <si>
-    <t>Un_0003 6/12</t>
-  </si>
-  <si>
-    <t>Un_0003 7/12</t>
-  </si>
-  <si>
-    <t>Un_0003 8/12</t>
-  </si>
-  <si>
-    <t>Un_0003 9/12</t>
-  </si>
-  <si>
-    <t>Un_0003 10/12</t>
-  </si>
-  <si>
-    <t>Un_0003 11/12</t>
-  </si>
-  <si>
-    <t>Un_0003 12/12</t>
-  </si>
-  <si>
-    <t>Un_0003 1/12</t>
-  </si>
-  <si>
-    <t>Un_0004 2/12</t>
-  </si>
-  <si>
-    <t>Un_0004 3/12</t>
-  </si>
-  <si>
-    <t>Un_0004 4/12</t>
-  </si>
-  <si>
-    <t>Un_0004 5/12</t>
-  </si>
-  <si>
-    <t>Un_0004 6/12</t>
-  </si>
-  <si>
-    <t>Un_0004 7/12</t>
-  </si>
-  <si>
-    <t>Un_0004 8/12</t>
-  </si>
-  <si>
-    <t>Un_0004 9/12</t>
-  </si>
-  <si>
-    <t>Un_0004 10/12</t>
-  </si>
-  <si>
-    <t>Un_0004 11/12</t>
-  </si>
-  <si>
-    <t>Un_0004 12/12</t>
-  </si>
-  <si>
-    <t>Un_0004 1/12</t>
-  </si>
-  <si>
-    <t>Un_0005 2/12</t>
-  </si>
-  <si>
-    <t>Un_0005 3/12</t>
-  </si>
-  <si>
-    <t>Un_0005 4/12</t>
-  </si>
-  <si>
-    <t>Un_0005 5/12</t>
-  </si>
-  <si>
-    <t>Un_0005 6/12</t>
-  </si>
-  <si>
-    <t>Un_0005 7/12</t>
-  </si>
-  <si>
-    <t>Un_0005 8/12</t>
-  </si>
-  <si>
-    <t>Un_0005 9/12</t>
-  </si>
-  <si>
-    <t>Un_0005 10/12</t>
-  </si>
-  <si>
-    <t>Un_0005 11/12</t>
-  </si>
-  <si>
-    <t>Un_0005 12/12</t>
-  </si>
-  <si>
-    <t>Un_0005 1/12</t>
-  </si>
-  <si>
-    <t>Un_0006 2/12</t>
-  </si>
-  <si>
-    <t>Un_0006 3/12</t>
-  </si>
-  <si>
-    <t>Un_0006 4/12</t>
-  </si>
-  <si>
-    <t>Un_0006 5/12</t>
-  </si>
-  <si>
-    <t>Un_0006 6/12</t>
-  </si>
-  <si>
-    <t>Un_0006 7/12</t>
-  </si>
-  <si>
-    <t>Un_0006 8/12</t>
-  </si>
-  <si>
-    <t>Un_0006 9/12</t>
-  </si>
-  <si>
-    <t>Un_0006 10/12</t>
-  </si>
-  <si>
-    <t>Un_0006 11/12</t>
-  </si>
-  <si>
-    <t>Un_0006 12/12</t>
-  </si>
-  <si>
-    <t>Un_0006 1/12</t>
-  </si>
-  <si>
-    <t>Un_0007 2/12</t>
-  </si>
-  <si>
-    <t>Un_0007 3/12</t>
-  </si>
-  <si>
-    <t>Un_0007 4/12</t>
-  </si>
-  <si>
-    <t>Un_0007 5/12</t>
-  </si>
-  <si>
-    <t>Un_0007 6/12</t>
-  </si>
-  <si>
-    <t>Un_0007 7/12</t>
-  </si>
-  <si>
-    <t>Un_0007 8/12</t>
-  </si>
-  <si>
-    <t>Un_0007 9/12</t>
-  </si>
-  <si>
-    <t>Un_0007 10/12</t>
-  </si>
-  <si>
-    <t>Un_0007 11/12</t>
-  </si>
-  <si>
-    <t>Un_0007 12/12</t>
-  </si>
-  <si>
-    <t>Un_0007 1/12</t>
-  </si>
-  <si>
-    <t>Un_0008 2/12</t>
-  </si>
-  <si>
-    <t>Un_0008 3/12</t>
-  </si>
-  <si>
-    <t>Un_0008 4/12</t>
-  </si>
-  <si>
-    <t>Un_0008 5/12</t>
-  </si>
-  <si>
-    <t>Un_0008 6/12</t>
-  </si>
-  <si>
-    <t>Un_0008 7/12</t>
-  </si>
-  <si>
-    <t>Un_0008 8/12</t>
-  </si>
-  <si>
-    <t>Un_0008 9/12</t>
-  </si>
-  <si>
-    <t>Un_0008 10/12</t>
-  </si>
-  <si>
-    <t>Un_0008 11/12</t>
-  </si>
-  <si>
-    <t>Un_0008 12/12</t>
-  </si>
-  <si>
-    <t>Un_0008 1/12</t>
-  </si>
-  <si>
-    <t>Un_0009 1/11</t>
-  </si>
-  <si>
-    <t>Un_0009 2/11</t>
-  </si>
-  <si>
-    <t>Un_0009 3/11</t>
-  </si>
-  <si>
-    <t>Un_0009 4/11</t>
-  </si>
-  <si>
-    <t>Un_0009 5/11</t>
-  </si>
-  <si>
-    <t>Un_0009 6/11</t>
-  </si>
-  <si>
-    <t>Un_0009 7/11</t>
-  </si>
-  <si>
-    <t>Un_0009 8/11</t>
-  </si>
-  <si>
-    <t>Un_0009 9/11</t>
-  </si>
-  <si>
-    <t>Un_0009 10/11</t>
-  </si>
-  <si>
-    <t>Un_0009 11/11</t>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>pos control</t>
+  </si>
+  <si>
+    <t>neg control</t>
+  </si>
+  <si>
+    <t>blank</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Run Log</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:13:51+01:00 - Execution started</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:13:57+01:00 - Photometric1 started</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:14:04+01:00 - Current temperature : 24.4</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:14:16+01:00 - Current temperature : 24.4</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:14:21+01:00 - Photometric1 completed</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:14:21+01:00 - Execution completed</t>
-  </si>
-  <si>
-    <t>Sample Data</t>
-  </si>
-  <si>
-    <t>Steps Data</t>
-  </si>
-  <si>
-    <t>Protocol properties</t>
-  </si>
-  <si>
-    <t>Protocol name</t>
-  </si>
-  <si>
-    <t>Protocol description</t>
-  </si>
-  <si>
-    <t>Plate template</t>
-  </si>
-  <si>
-    <t>Thermo Immulon/MicroFluor/Microlite 96-well plate</t>
-  </si>
-  <si>
-    <t>Execution block type</t>
-  </si>
-  <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>Execution order</t>
-  </si>
-  <si>
-    <t>Settle delay [ms]</t>
-  </si>
-  <si>
-    <t>Well interval [ms]</t>
-  </si>
-  <si>
-    <t>Measurement technology</t>
-  </si>
-  <si>
-    <t>Photometric</t>
-  </si>
-  <si>
-    <t>Measurement type</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Step duration</t>
-  </si>
-  <si>
-    <t>0:00:00.0</t>
-  </si>
-  <si>
-    <t>Lag time</t>
-  </si>
-  <si>
-    <t>Measurement time [ms]</t>
-  </si>
-  <si>
-    <t>Bandwidth [nm]</t>
-  </si>
-  <si>
-    <t>Multipoint</t>
-  </si>
-  <si>
-    <t>Not in use</t>
-  </si>
-  <si>
-    <t>Wavelength [nm]</t>
   </si>
 </sst>
 </file>
@@ -936,11 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
@@ -1221,9 +950,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
@@ -2855,11 +2586,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
@@ -3042,37 +2778,37 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
         <v>63</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
         <v>64</v>
       </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>69</v>
-      </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
@@ -3080,40 +2816,40 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
@@ -3121,40 +2857,40 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
@@ -3162,40 +2898,40 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
@@ -3203,40 +2939,40 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
@@ -3244,127 +2980,149 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="M12" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" t="s">
-        <v>142</v>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:M13" si="0">B13/1.75</f>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>326.53061224489795</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>186.58892128279882</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>106.62224073302789</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>60.926994704587365</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>34.815425545478497</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>19.894528883130569</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>11.368302218931754</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>6.4961726965324313</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>3.712098683732818</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>2.1211992478473247</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" t="s">
-        <v>153</v>
-      </c>
-      <c r="M14" t="s">
-        <v>154</v>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:M14" si="1">B14/1.75</f>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>326.53061224489795</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>186.58892128279882</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>106.62224073302789</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>60.926994704587365</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>34.815425545478497</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>19.894528883130569</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>11.368302218931754</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>6.4961726965324313</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>3.712098683732818</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>2.1211992478473247</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3733,608 +3491,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AP10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AP2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AP21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21">
-        <v>450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test-preader.xlsx
+++ b/test-preader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shef_covid\elisa-dl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59E4D3-F1BD-4D38-818C-A3DFBD992DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3A59E4D3-F1BD-4D38-818C-A3DFBD992DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE9ACF00-EB12-421D-9FCA-77EE73B74C91}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Layout" sheetId="2" r:id="rId2"/>
     <sheet name="Photometric1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -669,9 +670,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -793,17 +794,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -811,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -819,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -827,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -835,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -843,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -851,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -859,12 +860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -872,7 +873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -880,7 +881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -888,7 +889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -896,7 +897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -904,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -912,7 +913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -920,12 +921,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -933,7 +934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -954,9 +955,9 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1078,17 +1079,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2564,12 +2565,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>57</v>
       </c>
@@ -2587,17 +2588,17 @@
   <dimension ref="A1:AP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.19140625" customWidth="1"/>
+    <col min="5" max="5" width="11.59375" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2719,17 +2720,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>2.1211992478473247</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>2.1211992478473247</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>0.19040399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>6.5748699999999993E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>4.8096699999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>5.80257E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>8.8370099999999993E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>6.8327200000000005E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="J23">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
         <v>0.42</v>
@@ -3448,7 +3449,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>48</v>
       </c>
